--- a/MBoard/备忘录/底板与Android通信协议v1(农历年前发货版本).xlsx
+++ b/MBoard/备忘录/底板与Android通信协议v1(农历年前发货版本).xlsx
@@ -415,13 +415,30 @@
             <family val="2"/>
             <charset val="134"/>
           </rPr>
+          <t>以bit为单位确定开关状态：
+     bit0 为继电器1开关状态；
+     bit1 为继电器2开关状态；</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P51" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="微软雅黑"/>
+            <family val="2"/>
+            <charset val="134"/>
+          </rPr>
           <t>0x01：开启（正转）
 0x02：关闭（反转）
 0x03：停止（停转）</t>
         </r>
       </text>
     </comment>
-    <comment ref="P51" authorId="0">
+    <comment ref="P55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -438,7 +455,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q51" authorId="0">
+    <comment ref="Q55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -454,7 +471,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R51" authorId="0">
+    <comment ref="R55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -469,7 +486,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P55" authorId="0">
+    <comment ref="P59" authorId="0">
       <text>
         <r>
           <rPr>
@@ -485,7 +502,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P57" authorId="0">
+    <comment ref="P61" authorId="0">
       <text>
         <r>
           <rPr>
@@ -501,7 +518,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P59" authorId="0">
+    <comment ref="P63" authorId="0">
       <text>
         <r>
           <rPr>
@@ -517,7 +534,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q59" authorId="0">
+    <comment ref="Q63" authorId="0">
       <text>
         <r>
           <rPr>
@@ -541,7 +558,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="110">
   <si>
     <t>帧头</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -758,14 +775,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0xAA:WIFI模块通信</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0xBB:Zigbee模块通信</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>命令</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -963,6 +972,22 @@
   </si>
   <si>
     <t>开关状态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x30:两位继电器模块（仅下行）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继电器开关</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x01:WIFI模块通信</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x02:Zigbee模块通信</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1467,7 +1492,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1485,6 +1510,52 @@
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1506,12 +1577,6 @@
     <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1530,15 +1595,6 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1569,15 +1625,6 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1587,210 +1634,192 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1800,7 +1829,6 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="40% - 强调文字颜色 5" xfId="1" builtinId="47"/>
@@ -1929,6 +1957,104 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>27214</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1401536</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直接连接符 2"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19839214" y="0"/>
+          <a:ext cx="2789465" cy="1074964"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>2722</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2721</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直接连接符 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="19814722" y="13607"/>
+          <a:ext cx="2841171" cy="1077685"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="31750">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2224,10 +2350,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X95"/>
+  <dimension ref="A1:X99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M84" sqref="M84"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2237,1443 +2363,1521 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="60" t="s">
+      <c r="B1" s="54"/>
+      <c r="C1" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="105"/>
-      <c r="E1" s="60" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="61"/>
-      <c r="G1" s="49" t="s">
+      <c r="D1" s="106"/>
+      <c r="E1" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="54"/>
+      <c r="G1" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49" t="s">
+      <c r="H1" s="110"/>
+      <c r="I1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49" t="s">
+      <c r="J1" s="110"/>
+      <c r="K1" s="110" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49" t="s">
+      <c r="L1" s="110"/>
+      <c r="M1" s="110" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49" t="s">
+      <c r="N1" s="110"/>
+      <c r="O1" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="49"/>
+      <c r="P1" s="110"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A2" s="104" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="104"/>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="41" t="s">
+      <c r="D2" s="56"/>
+      <c r="E2" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="62"/>
-      <c r="G2" s="41" t="s">
+      <c r="F2" s="56"/>
+      <c r="G2" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="62"/>
-      <c r="I2" s="41" t="s">
+      <c r="H2" s="56"/>
+      <c r="I2" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="62"/>
-      <c r="K2" s="41" t="s">
+      <c r="J2" s="56"/>
+      <c r="K2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="42"/>
-      <c r="M2" s="41" t="s">
+      <c r="L2" s="105"/>
+      <c r="M2" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="42"/>
-      <c r="O2" s="41" t="s">
+      <c r="N2" s="105"/>
+      <c r="O2" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="42"/>
+      <c r="P2" s="105"/>
     </row>
     <row r="3" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="63" t="s">
+      <c r="B3" s="58"/>
+      <c r="C3" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="106"/>
-      <c r="E3" s="63" t="s">
+      <c r="D3" s="107"/>
+      <c r="E3" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="64"/>
-      <c r="G3" s="107" t="s">
+      <c r="F3" s="58"/>
+      <c r="G3" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="107"/>
-      <c r="I3" s="63" t="s">
+      <c r="H3" s="108"/>
+      <c r="I3" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="64"/>
-      <c r="K3" s="63" t="s">
+      <c r="J3" s="58"/>
+      <c r="K3" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="L3" s="64"/>
-      <c r="M3" s="63" t="s">
+      <c r="L3" s="58"/>
+      <c r="M3" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="N3" s="64"/>
-      <c r="O3" s="63" t="s">
+      <c r="N3" s="58"/>
+      <c r="O3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="64"/>
+      <c r="P3" s="58"/>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A4" s="95"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="89" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4" s="90"/>
-      <c r="E4" s="65" t="s">
+      <c r="A4" s="89"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="83" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="84"/>
+      <c r="E4" s="59" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="60"/>
+      <c r="G4" s="109" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="109"/>
+      <c r="I4" s="98" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="99"/>
+      <c r="K4" s="102" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="99"/>
+      <c r="O4" s="102" t="s">
+        <v>10</v>
+      </c>
+      <c r="P4" s="99"/>
+    </row>
+    <row r="5" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="89"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="60"/>
+      <c r="G5" s="96" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="97"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="101"/>
+      <c r="K5" s="103"/>
+      <c r="L5" s="101"/>
+      <c r="O5" s="103"/>
+      <c r="P5" s="101"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A6" s="89"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="96" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="97"/>
+    </row>
+    <row r="7" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="89"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="83" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" s="84"/>
+      <c r="E7" s="63" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="64"/>
+      <c r="G7" s="96" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="97"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="A8" s="89"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="64"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="97"/>
+    </row>
+    <row r="9" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="89"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="96" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="97"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="E10" s="61"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="96" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="97"/>
+    </row>
+    <row r="11" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E11" s="61"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="96" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="97"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="E12" s="61"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="97"/>
+    </row>
+    <row r="13" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E13" s="61"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="96" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="97"/>
+      <c r="K13" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" s="68"/>
+      <c r="M13" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="N13" s="76"/>
+      <c r="O13" s="79" t="s">
+        <v>24</v>
+      </c>
+      <c r="P13" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q13" s="51" t="s">
+        <v>103</v>
+      </c>
+      <c r="R13" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="S13" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="T13" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="U13" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="V13" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="W13" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="X13" s="51" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="E14" s="61"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="96"/>
+      <c r="H14" s="97"/>
+      <c r="K14" s="69"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="78"/>
+      <c r="O14" s="80"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
+      <c r="S14" s="52"/>
+      <c r="T14" s="52"/>
+      <c r="U14" s="52"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="52"/>
+      <c r="X14" s="52"/>
+    </row>
+    <row r="15" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E15" s="61"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="96" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="97"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="90" t="s">
+        <v>87</v>
+      </c>
+      <c r="N15" s="91"/>
+      <c r="O15" s="94">
+        <v>1</v>
+      </c>
+      <c r="P15" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="F4" s="66"/>
-      <c r="G4" s="108" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="108"/>
-      <c r="I4" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="44"/>
-      <c r="K4" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="44"/>
-      <c r="O4" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="P4" s="44"/>
-    </row>
-    <row r="5" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="95"/>
-      <c r="B5" s="95"/>
-      <c r="C5" s="91"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="65" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="66"/>
-      <c r="G5" s="102" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="103"/>
-      <c r="I5" s="45"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="46"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="46"/>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A6" s="95"/>
-      <c r="B6" s="95"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="102" t="s">
-        <v>42</v>
-      </c>
-      <c r="H6" s="103"/>
-    </row>
-    <row r="7" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="95"/>
-      <c r="B7" s="95"/>
-      <c r="C7" s="89" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="90"/>
-      <c r="E7" s="69" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="70"/>
-      <c r="G7" s="102" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="103"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A8" s="95"/>
-      <c r="B8" s="95"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="69" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="70"/>
-      <c r="G8" s="102"/>
-      <c r="H8" s="103"/>
-    </row>
-    <row r="9" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="95"/>
-      <c r="B9" s="95"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="72"/>
-      <c r="G9" s="102" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="103"/>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="E10" s="67"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="102" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="103"/>
-    </row>
-    <row r="11" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E11" s="67"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="102" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="103"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="E12" s="67"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="102" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" s="103"/>
-    </row>
-    <row r="13" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E13" s="67"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="102" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="103"/>
-      <c r="K13" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="L13" s="74"/>
-      <c r="M13" s="81" t="s">
-        <v>36</v>
-      </c>
-      <c r="N13" s="82"/>
-      <c r="O13" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="P13" s="58" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q13" s="58" t="s">
-        <v>105</v>
-      </c>
-      <c r="R13" s="58" t="s">
-        <v>12</v>
-      </c>
-      <c r="S13" s="58" t="s">
-        <v>13</v>
-      </c>
-      <c r="T13" s="58" t="s">
-        <v>14</v>
-      </c>
-      <c r="U13" s="58" t="s">
-        <v>15</v>
-      </c>
-      <c r="V13" s="58" t="s">
-        <v>16</v>
-      </c>
-      <c r="W13" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="X13" s="58" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="E14" s="67"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="103"/>
-      <c r="K14" s="75"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="83"/>
-      <c r="N14" s="84"/>
-      <c r="O14" s="86"/>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
-      <c r="R14" s="59"/>
-      <c r="S14" s="59"/>
-      <c r="T14" s="59"/>
-      <c r="U14" s="59"/>
-      <c r="V14" s="59"/>
-      <c r="W14" s="59"/>
-      <c r="X14" s="59"/>
-    </row>
-    <row r="15" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E15" s="67"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="102" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="103"/>
-      <c r="K15" s="75"/>
-      <c r="L15" s="76"/>
-      <c r="M15" s="96" t="s">
-        <v>89</v>
-      </c>
-      <c r="N15" s="97"/>
-      <c r="O15" s="100">
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="37"/>
+      <c r="X15" s="37"/>
+    </row>
+    <row r="16" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E16" s="61"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="97"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="93"/>
+      <c r="O16" s="95"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="38"/>
+      <c r="V16" s="38"/>
+      <c r="W16" s="38"/>
+      <c r="X16" s="38"/>
+    </row>
+    <row r="17" spans="7:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G17" s="96" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" s="97"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="90" t="s">
+        <v>88</v>
+      </c>
+      <c r="N17" s="91"/>
+      <c r="O17" s="94">
         <v>1</v>
       </c>
-      <c r="P15" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
-      <c r="W15" s="26"/>
-      <c r="X15" s="26"/>
-    </row>
-    <row r="16" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E16" s="67"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="102" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" s="103"/>
-      <c r="K16" s="75"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="98"/>
-      <c r="N16" s="99"/>
-      <c r="O16" s="101"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="27"/>
-      <c r="V16" s="27"/>
-      <c r="W16" s="27"/>
-      <c r="X16" s="27"/>
-    </row>
-    <row r="17" spans="7:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G17" s="102" t="s">
-        <v>35</v>
-      </c>
-      <c r="H17" s="103"/>
-      <c r="K17" s="75"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="96" t="s">
-        <v>90</v>
-      </c>
-      <c r="N17" s="97"/>
-      <c r="O17" s="100">
+      <c r="P17" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="37"/>
+      <c r="S17" s="37"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="37"/>
+      <c r="V17" s="37"/>
+      <c r="W17" s="37"/>
+      <c r="X17" s="37"/>
+    </row>
+    <row r="18" spans="7:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G18" s="96" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="97"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="92"/>
+      <c r="N18" s="93"/>
+      <c r="O18" s="95"/>
+      <c r="P18" s="45"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="38"/>
+      <c r="X18" s="38"/>
+    </row>
+    <row r="19" spans="7:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G19" s="96"/>
+      <c r="H19" s="97"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="90" t="s">
+        <v>86</v>
+      </c>
+      <c r="N19" s="91"/>
+      <c r="O19" s="94">
         <v>1</v>
       </c>
-      <c r="P17" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="26"/>
-      <c r="W17" s="26"/>
-      <c r="X17" s="26"/>
-    </row>
-    <row r="18" spans="7:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G18" s="102" t="s">
-        <v>49</v>
-      </c>
-      <c r="H18" s="103"/>
-      <c r="K18" s="75"/>
-      <c r="L18" s="76"/>
-      <c r="M18" s="98"/>
-      <c r="N18" s="99"/>
-      <c r="O18" s="101"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="27"/>
-      <c r="R18" s="27"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="27"/>
-      <c r="V18" s="27"/>
-      <c r="W18" s="27"/>
-      <c r="X18" s="27"/>
-    </row>
-    <row r="19" spans="7:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G19" s="102"/>
-      <c r="H19" s="103"/>
-      <c r="K19" s="75"/>
-      <c r="L19" s="76"/>
-      <c r="M19" s="96" t="s">
-        <v>88</v>
-      </c>
-      <c r="N19" s="97"/>
-      <c r="O19" s="100">
-        <v>1</v>
-      </c>
-      <c r="P19" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="26"/>
-      <c r="V19" s="26"/>
-      <c r="W19" s="26"/>
-      <c r="X19" s="26"/>
+      <c r="P19" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="37"/>
     </row>
     <row r="20" spans="7:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="G20" s="102" t="s">
+      <c r="G20" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="H20" s="103"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="98"/>
-      <c r="N20" s="99"/>
-      <c r="O20" s="101"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="27"/>
-      <c r="R20" s="27"/>
-      <c r="S20" s="27"/>
-      <c r="T20" s="27"/>
-      <c r="U20" s="27"/>
-      <c r="V20" s="27"/>
-      <c r="W20" s="27"/>
-      <c r="X20" s="27"/>
+      <c r="H20" s="97"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="92"/>
+      <c r="N20" s="93"/>
+      <c r="O20" s="95"/>
+      <c r="P20" s="45"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="38"/>
+      <c r="W20" s="38"/>
+      <c r="X20" s="38"/>
     </row>
     <row r="21" spans="7:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
-      <c r="K21" s="75"/>
-      <c r="L21" s="76"/>
-      <c r="M21" s="96" t="s">
-        <v>87</v>
-      </c>
-      <c r="N21" s="97"/>
-      <c r="O21" s="100">
+      <c r="K21" s="69"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="90" t="s">
+        <v>85</v>
+      </c>
+      <c r="N21" s="91"/>
+      <c r="O21" s="94">
         <v>1</v>
       </c>
-      <c r="P21" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="26"/>
-      <c r="V21" s="26"/>
-      <c r="W21" s="26"/>
-      <c r="X21" s="26"/>
+      <c r="P21" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q21" s="37"/>
+      <c r="R21" s="37"/>
+      <c r="S21" s="37"/>
+      <c r="T21" s="37"/>
+      <c r="U21" s="37"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="37"/>
+      <c r="X21" s="37"/>
     </row>
     <row r="22" spans="7:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
-      <c r="K22" s="75"/>
-      <c r="L22" s="76"/>
-      <c r="M22" s="98"/>
-      <c r="N22" s="99"/>
-      <c r="O22" s="101"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="27"/>
-      <c r="R22" s="27"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="27"/>
-      <c r="U22" s="27"/>
-      <c r="V22" s="27"/>
-      <c r="W22" s="27"/>
-      <c r="X22" s="27"/>
+      <c r="K22" s="69"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="92"/>
+      <c r="N22" s="93"/>
+      <c r="O22" s="95"/>
+      <c r="P22" s="45"/>
+      <c r="Q22" s="38"/>
+      <c r="R22" s="38"/>
+      <c r="S22" s="38"/>
+      <c r="T22" s="38"/>
+      <c r="U22" s="38"/>
+      <c r="V22" s="38"/>
+      <c r="W22" s="38"/>
+      <c r="X22" s="38"/>
     </row>
     <row r="23" spans="7:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-      <c r="K23" s="75"/>
-      <c r="L23" s="76"/>
-      <c r="M23" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="N23" s="8"/>
-      <c r="O23" s="38">
+      <c r="K23" s="69"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="N23" s="24"/>
+      <c r="O23" s="46">
         <v>5</v>
       </c>
-      <c r="P23" s="31" t="s">
+      <c r="P23" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q23" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="R23" s="42" t="s">
         <v>100</v>
       </c>
-      <c r="Q23" s="31" t="s">
+      <c r="S23" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="R23" s="31" t="s">
+      <c r="T23" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="S23" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="T23" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="U23" s="26"/>
-      <c r="V23" s="15"/>
-      <c r="W23" s="13"/>
-      <c r="X23" s="13"/>
+      <c r="U23" s="37"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
     </row>
     <row r="24" spans="7:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
-      <c r="K24" s="75"/>
-      <c r="L24" s="76"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="40"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="32"/>
-      <c r="S24" s="32"/>
-      <c r="T24" s="32"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="14"/>
+      <c r="K24" s="69"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="48"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="43"/>
+      <c r="S24" s="43"/>
+      <c r="T24" s="43"/>
+      <c r="U24" s="38"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
     </row>
     <row r="25" spans="7:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
-      <c r="K25" s="75"/>
-      <c r="L25" s="76"/>
-      <c r="M25" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="N25" s="8"/>
-      <c r="O25" s="38">
+      <c r="K25" s="69"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="N25" s="24"/>
+      <c r="O25" s="46">
         <v>4</v>
       </c>
-      <c r="P25" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q25" s="31" t="s">
-        <v>85</v>
-      </c>
-      <c r="R25" s="56" t="s">
+      <c r="P25" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q25" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="R25" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="S25" s="31" t="s">
+      <c r="S25" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="T25" s="56" t="s">
+      <c r="T25" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="U25" s="26"/>
-      <c r="V25" s="15"/>
-      <c r="W25" s="13"/>
-      <c r="X25" s="13"/>
+      <c r="U25" s="37"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="29"/>
+      <c r="X25" s="29"/>
     </row>
     <row r="26" spans="7:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
-      <c r="K26" s="75"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="40"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="32"/>
-      <c r="R26" s="57"/>
-      <c r="S26" s="32"/>
-      <c r="T26" s="32"/>
-      <c r="U26" s="27"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="14"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="27"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="48"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="43"/>
+      <c r="T26" s="43"/>
+      <c r="U26" s="38"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
     </row>
     <row r="27" spans="7:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
-      <c r="K27" s="75"/>
-      <c r="L27" s="76"/>
-      <c r="M27" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="N27" s="8"/>
-      <c r="O27" s="38">
+      <c r="K27" s="69"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="N27" s="24"/>
+      <c r="O27" s="46">
         <v>1</v>
       </c>
-      <c r="P27" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13"/>
-      <c r="U27" s="26"/>
-      <c r="V27" s="15"/>
-      <c r="W27" s="13"/>
-      <c r="X27" s="13"/>
+      <c r="P27" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="37"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
     </row>
     <row r="28" spans="7:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
-      <c r="K28" s="75"/>
-      <c r="L28" s="76"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="32"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="27"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="14"/>
-      <c r="X28" s="14"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="27"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="38"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
     </row>
     <row r="29" spans="7:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
-      <c r="K29" s="75"/>
-      <c r="L29" s="76"/>
-      <c r="M29" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="N29" s="8"/>
-      <c r="O29" s="38">
+      <c r="K29" s="69"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="N29" s="24"/>
+      <c r="O29" s="46">
         <v>1</v>
       </c>
-      <c r="P29" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="26"/>
-      <c r="S29" s="15"/>
-      <c r="T29" s="13"/>
-      <c r="U29" s="26"/>
-      <c r="V29" s="15"/>
-      <c r="W29" s="13"/>
-      <c r="X29" s="13"/>
+      <c r="P29" s="42" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="37"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="37"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="29"/>
     </row>
     <row r="30" spans="7:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
-      <c r="K30" s="75"/>
-      <c r="L30" s="76"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="12"/>
-      <c r="O30" s="40"/>
-      <c r="P30" s="32"/>
-      <c r="Q30" s="14"/>
-      <c r="R30" s="27"/>
-      <c r="S30" s="14"/>
-      <c r="T30" s="14"/>
-      <c r="U30" s="27"/>
-      <c r="V30" s="14"/>
-      <c r="W30" s="14"/>
-      <c r="X30" s="14"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="70"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="38"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="38"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10"/>
     </row>
     <row r="31" spans="7:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
-      <c r="K31" s="75"/>
-      <c r="L31" s="76"/>
-      <c r="M31" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="N31" s="8"/>
-      <c r="O31" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="P31" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="28"/>
-      <c r="S31" s="28"/>
-      <c r="T31" s="28"/>
-      <c r="U31" s="28"/>
-      <c r="V31" s="15"/>
-      <c r="W31" s="15"/>
-      <c r="X31" s="26"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="N31" s="24"/>
+      <c r="O31" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="P31" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q31" s="39"/>
+      <c r="R31" s="39"/>
+      <c r="S31" s="39"/>
+      <c r="T31" s="39"/>
+      <c r="U31" s="39"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="37"/>
     </row>
     <row r="32" spans="7:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
-      <c r="K32" s="75"/>
-      <c r="L32" s="76"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="39"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="28"/>
-      <c r="R32" s="28"/>
-      <c r="S32" s="28"/>
-      <c r="T32" s="28"/>
-      <c r="U32" s="28"/>
-      <c r="V32" s="14"/>
-      <c r="W32" s="14"/>
-      <c r="X32" s="27"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="70"/>
+      <c r="M32" s="25"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="39"/>
+      <c r="R32" s="39"/>
+      <c r="S32" s="39"/>
+      <c r="T32" s="39"/>
+      <c r="U32" s="39"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="38"/>
     </row>
     <row r="33" spans="7:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
-      <c r="K33" s="75"/>
-      <c r="L33" s="76"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q33" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="R33" s="17"/>
-      <c r="S33" s="17"/>
-      <c r="T33" s="18"/>
-      <c r="U33" s="28"/>
-      <c r="V33" s="15"/>
-      <c r="W33" s="15"/>
-      <c r="X33" s="26"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="70"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="47"/>
+      <c r="P33" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q33" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="R33" s="31"/>
+      <c r="S33" s="31"/>
+      <c r="T33" s="32"/>
+      <c r="U33" s="39"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="37"/>
     </row>
     <row r="34" spans="7:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="76"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="40"/>
-      <c r="P34" s="32"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="20"/>
-      <c r="S34" s="20"/>
-      <c r="T34" s="21"/>
-      <c r="U34" s="28"/>
-      <c r="V34" s="14"/>
-      <c r="W34" s="14"/>
-      <c r="X34" s="27"/>
+      <c r="K34" s="69"/>
+      <c r="L34" s="70"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="48"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="33"/>
+      <c r="R34" s="34"/>
+      <c r="S34" s="34"/>
+      <c r="T34" s="35"/>
+      <c r="U34" s="39"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="38"/>
     </row>
     <row r="35" spans="7:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
-      <c r="K35" s="75"/>
-      <c r="L35" s="76"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="P35" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="26"/>
-      <c r="S35" s="15"/>
-      <c r="T35" s="13"/>
-      <c r="U35" s="26"/>
-      <c r="V35" s="26"/>
-      <c r="W35" s="26"/>
-      <c r="X35" s="26"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="70"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="P35" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="37"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="29"/>
+      <c r="U35" s="37"/>
+      <c r="V35" s="37"/>
+      <c r="W35" s="37"/>
+      <c r="X35" s="37"/>
     </row>
     <row r="36" spans="7:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
-      <c r="K36" s="75"/>
-      <c r="L36" s="76"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="14"/>
-      <c r="R36" s="27"/>
-      <c r="S36" s="14"/>
-      <c r="T36" s="14"/>
-      <c r="U36" s="27"/>
-      <c r="V36" s="27"/>
-      <c r="W36" s="27"/>
-      <c r="X36" s="27"/>
+      <c r="K36" s="69"/>
+      <c r="L36" s="70"/>
+      <c r="M36" s="25"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="47"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="38"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="38"/>
+      <c r="V36" s="38"/>
+      <c r="W36" s="38"/>
+      <c r="X36" s="38"/>
     </row>
     <row r="37" spans="7:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
-      <c r="K37" s="75"/>
-      <c r="L37" s="76"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="10"/>
-      <c r="O37" s="39"/>
-      <c r="P37" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q37" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="R37" s="17"/>
-      <c r="S37" s="17"/>
-      <c r="T37" s="17"/>
-      <c r="U37" s="17"/>
-      <c r="V37" s="17"/>
-      <c r="W37" s="17"/>
-      <c r="X37" s="18"/>
+      <c r="K37" s="69"/>
+      <c r="L37" s="70"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="47"/>
+      <c r="P37" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q37" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="R37" s="31"/>
+      <c r="S37" s="31"/>
+      <c r="T37" s="31"/>
+      <c r="U37" s="31"/>
+      <c r="V37" s="31"/>
+      <c r="W37" s="31"/>
+      <c r="X37" s="32"/>
     </row>
     <row r="38" spans="7:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
-      <c r="K38" s="75"/>
-      <c r="L38" s="76"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="40"/>
-      <c r="P38" s="32"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="20"/>
-      <c r="S38" s="20"/>
-      <c r="T38" s="20"/>
-      <c r="U38" s="20"/>
-      <c r="V38" s="20"/>
-      <c r="W38" s="20"/>
-      <c r="X38" s="21"/>
+      <c r="K38" s="69"/>
+      <c r="L38" s="70"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="48"/>
+      <c r="P38" s="43"/>
+      <c r="Q38" s="33"/>
+      <c r="R38" s="34"/>
+      <c r="S38" s="34"/>
+      <c r="T38" s="34"/>
+      <c r="U38" s="34"/>
+      <c r="V38" s="34"/>
+      <c r="W38" s="34"/>
+      <c r="X38" s="35"/>
     </row>
     <row r="39" spans="7:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
-      <c r="K39" s="75"/>
-      <c r="L39" s="76"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="P39" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q39" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="R39" s="15"/>
-      <c r="S39" s="15"/>
-      <c r="T39" s="15"/>
-      <c r="U39" s="15"/>
-      <c r="V39" s="15"/>
-      <c r="W39" s="15"/>
-      <c r="X39" s="13"/>
+      <c r="K39" s="69"/>
+      <c r="L39" s="70"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="P39" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q39" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="U39" s="8"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="8"/>
+      <c r="X39" s="29"/>
     </row>
     <row r="40" spans="7:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
-      <c r="K40" s="75"/>
-      <c r="L40" s="76"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="39"/>
-      <c r="P40" s="32"/>
-      <c r="Q40" s="111"/>
-      <c r="R40" s="14"/>
-      <c r="S40" s="14"/>
-      <c r="T40" s="14"/>
-      <c r="U40" s="14"/>
-      <c r="V40" s="14"/>
-      <c r="W40" s="14"/>
-      <c r="X40" s="25"/>
+      <c r="K40" s="69"/>
+      <c r="L40" s="70"/>
+      <c r="M40" s="25"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="47"/>
+      <c r="P40" s="43"/>
+      <c r="Q40" s="113"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="36"/>
     </row>
     <row r="41" spans="7:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
-      <c r="K41" s="75"/>
-      <c r="L41" s="76"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q41" s="111"/>
-      <c r="R41" s="15"/>
-      <c r="S41" s="15"/>
-      <c r="T41" s="15"/>
-      <c r="U41" s="15"/>
-      <c r="V41" s="15"/>
-      <c r="W41" s="15"/>
-      <c r="X41" s="13"/>
+      <c r="K41" s="69"/>
+      <c r="L41" s="70"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="47"/>
+      <c r="P41" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q41" s="113"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="U41" s="8"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="8"/>
+      <c r="X41" s="29"/>
     </row>
     <row r="42" spans="7:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
-      <c r="K42" s="75"/>
-      <c r="L42" s="76"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="40"/>
-      <c r="P42" s="32"/>
-      <c r="Q42" s="32"/>
-      <c r="R42" s="14"/>
-      <c r="S42" s="14"/>
-      <c r="T42" s="14"/>
-      <c r="U42" s="14"/>
-      <c r="V42" s="14"/>
-      <c r="W42" s="14"/>
-      <c r="X42" s="25"/>
+      <c r="K42" s="69"/>
+      <c r="L42" s="70"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="48"/>
+      <c r="P42" s="43"/>
+      <c r="Q42" s="43"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="36"/>
     </row>
     <row r="43" spans="7:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
-      <c r="K43" s="75"/>
-      <c r="L43" s="76"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="P43" s="31" t="s">
+      <c r="K43" s="69"/>
+      <c r="L43" s="70"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="P43" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q43" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="Q43" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="R43" s="15"/>
-      <c r="S43" s="15"/>
-      <c r="T43" s="15"/>
-      <c r="U43" s="15"/>
-      <c r="V43" s="15"/>
-      <c r="W43" s="15"/>
-      <c r="X43" s="13"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="29"/>
     </row>
     <row r="44" spans="7:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
-      <c r="K44" s="75"/>
-      <c r="L44" s="76"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="39"/>
-      <c r="P44" s="32"/>
-      <c r="Q44" s="32"/>
-      <c r="R44" s="14"/>
-      <c r="S44" s="14"/>
-      <c r="T44" s="14"/>
-      <c r="U44" s="14"/>
-      <c r="V44" s="14"/>
-      <c r="W44" s="14"/>
-      <c r="X44" s="25"/>
+      <c r="K44" s="69"/>
+      <c r="L44" s="70"/>
+      <c r="M44" s="25"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="47"/>
+      <c r="P44" s="43"/>
+      <c r="Q44" s="43"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
+      <c r="T44" s="10"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="10"/>
+      <c r="W44" s="10"/>
+      <c r="X44" s="36"/>
     </row>
     <row r="45" spans="7:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
-      <c r="K45" s="75"/>
-      <c r="L45" s="76"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="39"/>
-      <c r="P45" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q45" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="R45" s="15"/>
-      <c r="S45" s="15"/>
-      <c r="T45" s="15"/>
-      <c r="U45" s="15"/>
-      <c r="V45" s="15"/>
-      <c r="W45" s="15"/>
-      <c r="X45" s="13"/>
+      <c r="K45" s="69"/>
+      <c r="L45" s="70"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="47"/>
+      <c r="P45" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q45" s="42" t="s">
+        <v>95</v>
+      </c>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="8"/>
+      <c r="X45" s="29"/>
     </row>
     <row r="46" spans="7:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
-      <c r="K46" s="75"/>
-      <c r="L46" s="76"/>
-      <c r="M46" s="11"/>
-      <c r="N46" s="12"/>
-      <c r="O46" s="40"/>
-      <c r="P46" s="32"/>
-      <c r="Q46" s="32"/>
-      <c r="R46" s="14"/>
-      <c r="S46" s="14"/>
-      <c r="T46" s="14"/>
-      <c r="U46" s="14"/>
-      <c r="V46" s="14"/>
-      <c r="W46" s="14"/>
-      <c r="X46" s="25"/>
+      <c r="K46" s="69"/>
+      <c r="L46" s="70"/>
+      <c r="M46" s="27"/>
+      <c r="N46" s="28"/>
+      <c r="O46" s="48"/>
+      <c r="P46" s="43"/>
+      <c r="Q46" s="43"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="10"/>
+      <c r="U46" s="10"/>
+      <c r="V46" s="10"/>
+      <c r="W46" s="10"/>
+      <c r="X46" s="36"/>
     </row>
     <row r="47" spans="7:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
-      <c r="K47" s="75"/>
-      <c r="L47" s="76"/>
-      <c r="M47" s="50" t="s">
-        <v>66</v>
-      </c>
-      <c r="N47" s="51"/>
-      <c r="O47" s="35">
+      <c r="K47" s="69"/>
+      <c r="L47" s="70"/>
+      <c r="M47" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="N47" s="12"/>
+      <c r="O47" s="17">
         <v>1</v>
       </c>
-      <c r="P47" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q47" s="13"/>
-      <c r="R47" s="26"/>
-      <c r="S47" s="15"/>
-      <c r="T47" s="13"/>
-      <c r="U47" s="26"/>
-      <c r="V47" s="15"/>
-      <c r="W47" s="13"/>
-      <c r="X47" s="13"/>
+      <c r="P47" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="8"/>
+      <c r="T47" s="8"/>
+      <c r="U47" s="8"/>
+      <c r="V47" s="8"/>
+      <c r="W47" s="8"/>
+      <c r="X47" s="8"/>
     </row>
     <row r="48" spans="7:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
-      <c r="K48" s="75"/>
-      <c r="L48" s="76"/>
-      <c r="M48" s="52"/>
-      <c r="N48" s="53"/>
-      <c r="O48" s="36"/>
-      <c r="P48" s="23"/>
-      <c r="Q48" s="14"/>
-      <c r="R48" s="27"/>
-      <c r="S48" s="14"/>
-      <c r="T48" s="14"/>
-      <c r="U48" s="27"/>
-      <c r="V48" s="14"/>
-      <c r="W48" s="14"/>
-      <c r="X48" s="14"/>
+      <c r="K48" s="69"/>
+      <c r="L48" s="70"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="14"/>
+      <c r="O48" s="18"/>
+      <c r="P48" s="21"/>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="9"/>
+      <c r="V48" s="9"/>
+      <c r="W48" s="9"/>
+      <c r="X48" s="9"/>
     </row>
     <row r="49" spans="7:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
-      <c r="K49" s="75"/>
-      <c r="L49" s="76"/>
-      <c r="M49" s="52"/>
-      <c r="N49" s="53"/>
-      <c r="O49" s="36"/>
-      <c r="P49" s="23"/>
-      <c r="Q49" s="26"/>
-      <c r="R49" s="15"/>
-      <c r="S49" s="13"/>
-      <c r="T49" s="26"/>
-      <c r="U49" s="15"/>
-      <c r="V49" s="13"/>
-      <c r="W49" s="13"/>
-      <c r="X49" s="13"/>
+      <c r="K49" s="69"/>
+      <c r="L49" s="70"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="18"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="9"/>
+      <c r="U49" s="9"/>
+      <c r="V49" s="9"/>
+      <c r="W49" s="9"/>
+      <c r="X49" s="9"/>
     </row>
     <row r="50" spans="7:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
-      <c r="K50" s="75"/>
-      <c r="L50" s="76"/>
-      <c r="M50" s="54"/>
-      <c r="N50" s="55"/>
-      <c r="O50" s="37"/>
-      <c r="P50" s="24"/>
-      <c r="Q50" s="27"/>
-      <c r="R50" s="14"/>
-      <c r="S50" s="14"/>
-      <c r="T50" s="27"/>
-      <c r="U50" s="14"/>
-      <c r="V50" s="14"/>
-      <c r="W50" s="14"/>
-      <c r="X50" s="14"/>
+      <c r="K50" s="69"/>
+      <c r="L50" s="70"/>
+      <c r="M50" s="15"/>
+      <c r="N50" s="16"/>
+      <c r="O50" s="19"/>
+      <c r="P50" s="22"/>
+      <c r="Q50" s="10"/>
+      <c r="R50" s="10"/>
+      <c r="S50" s="10"/>
+      <c r="T50" s="10"/>
+      <c r="U50" s="10"/>
+      <c r="V50" s="10"/>
+      <c r="W50" s="10"/>
+      <c r="X50" s="10"/>
     </row>
     <row r="51" spans="7:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
-      <c r="K51" s="75"/>
-      <c r="L51" s="76"/>
-      <c r="M51" s="50" t="s">
-        <v>67</v>
-      </c>
-      <c r="N51" s="51"/>
-      <c r="O51" s="35">
-        <v>3</v>
-      </c>
-      <c r="P51" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q51" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="R51" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="S51" s="15"/>
-      <c r="T51" s="13"/>
-      <c r="U51" s="26"/>
-      <c r="V51" s="15"/>
-      <c r="W51" s="13"/>
-      <c r="X51" s="26"/>
+      <c r="K51" s="69"/>
+      <c r="L51" s="70"/>
+      <c r="M51" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="N51" s="12"/>
+      <c r="O51" s="17">
+        <v>1</v>
+      </c>
+      <c r="P51" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q51" s="29"/>
+      <c r="R51" s="37"/>
+      <c r="S51" s="8"/>
+      <c r="T51" s="29"/>
+      <c r="U51" s="37"/>
+      <c r="V51" s="8"/>
+      <c r="W51" s="29"/>
+      <c r="X51" s="29"/>
     </row>
     <row r="52" spans="7:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
-      <c r="K52" s="75"/>
-      <c r="L52" s="76"/>
-      <c r="M52" s="52"/>
-      <c r="N52" s="53"/>
-      <c r="O52" s="36"/>
-      <c r="P52" s="23"/>
-      <c r="Q52" s="23"/>
-      <c r="R52" s="23"/>
-      <c r="S52" s="14"/>
-      <c r="T52" s="14"/>
-      <c r="U52" s="27"/>
-      <c r="V52" s="14"/>
-      <c r="W52" s="14"/>
-      <c r="X52" s="27"/>
+      <c r="K52" s="69"/>
+      <c r="L52" s="70"/>
+      <c r="M52" s="13"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="18"/>
+      <c r="P52" s="21"/>
+      <c r="Q52" s="10"/>
+      <c r="R52" s="38"/>
+      <c r="S52" s="10"/>
+      <c r="T52" s="10"/>
+      <c r="U52" s="38"/>
+      <c r="V52" s="10"/>
+      <c r="W52" s="10"/>
+      <c r="X52" s="10"/>
     </row>
     <row r="53" spans="7:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
-      <c r="K53" s="75"/>
-      <c r="L53" s="76"/>
-      <c r="M53" s="52"/>
-      <c r="N53" s="53"/>
-      <c r="O53" s="36"/>
-      <c r="P53" s="23"/>
-      <c r="Q53" s="23"/>
-      <c r="R53" s="23"/>
-      <c r="S53" s="13"/>
-      <c r="T53" s="26"/>
-      <c r="U53" s="15"/>
-      <c r="V53" s="13"/>
-      <c r="W53" s="13"/>
-      <c r="X53" s="26"/>
+      <c r="K53" s="69"/>
+      <c r="L53" s="70"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="14"/>
+      <c r="O53" s="18"/>
+      <c r="P53" s="21"/>
+      <c r="Q53" s="37"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="29"/>
+      <c r="T53" s="37"/>
+      <c r="U53" s="8"/>
+      <c r="V53" s="29"/>
+      <c r="W53" s="29"/>
+      <c r="X53" s="29"/>
     </row>
     <row r="54" spans="7:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
-      <c r="K54" s="75"/>
-      <c r="L54" s="76"/>
-      <c r="M54" s="54"/>
-      <c r="N54" s="55"/>
-      <c r="O54" s="37"/>
-      <c r="P54" s="24"/>
-      <c r="Q54" s="24"/>
-      <c r="R54" s="24"/>
-      <c r="S54" s="14"/>
-      <c r="T54" s="27"/>
-      <c r="U54" s="14"/>
-      <c r="V54" s="14"/>
-      <c r="W54" s="14"/>
-      <c r="X54" s="27"/>
+      <c r="K54" s="69"/>
+      <c r="L54" s="70"/>
+      <c r="M54" s="15"/>
+      <c r="N54" s="16"/>
+      <c r="O54" s="19"/>
+      <c r="P54" s="22"/>
+      <c r="Q54" s="38"/>
+      <c r="R54" s="10"/>
+      <c r="S54" s="10"/>
+      <c r="T54" s="38"/>
+      <c r="U54" s="10"/>
+      <c r="V54" s="10"/>
+      <c r="W54" s="10"/>
+      <c r="X54" s="10"/>
     </row>
     <row r="55" spans="7:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
-      <c r="K55" s="75"/>
-      <c r="L55" s="76"/>
-      <c r="M55" s="50" t="s">
-        <v>84</v>
-      </c>
-      <c r="N55" s="51"/>
-      <c r="O55" s="35">
-        <v>1</v>
-      </c>
-      <c r="P55" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q55" s="13"/>
-      <c r="R55" s="26"/>
-      <c r="S55" s="15"/>
-      <c r="T55" s="13"/>
-      <c r="U55" s="26"/>
-      <c r="V55" s="15"/>
-      <c r="W55" s="13"/>
-      <c r="X55" s="26"/>
+      <c r="K55" s="69"/>
+      <c r="L55" s="70"/>
+      <c r="M55" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="N55" s="12"/>
+      <c r="O55" s="17">
+        <v>3</v>
+      </c>
+      <c r="P55" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q55" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="R55" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="S55" s="8"/>
+      <c r="T55" s="29"/>
+      <c r="U55" s="37"/>
+      <c r="V55" s="8"/>
+      <c r="W55" s="29"/>
+      <c r="X55" s="37"/>
     </row>
     <row r="56" spans="7:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
-      <c r="K56" s="75"/>
-      <c r="L56" s="76"/>
-      <c r="M56" s="52"/>
-      <c r="N56" s="53"/>
-      <c r="O56" s="36"/>
-      <c r="P56" s="24"/>
-      <c r="Q56" s="14"/>
-      <c r="R56" s="27"/>
-      <c r="S56" s="14"/>
-      <c r="T56" s="14"/>
-      <c r="U56" s="27"/>
-      <c r="V56" s="14"/>
-      <c r="W56" s="14"/>
-      <c r="X56" s="27"/>
+      <c r="K56" s="69"/>
+      <c r="L56" s="70"/>
+      <c r="M56" s="13"/>
+      <c r="N56" s="14"/>
+      <c r="O56" s="18"/>
+      <c r="P56" s="21"/>
+      <c r="Q56" s="21"/>
+      <c r="R56" s="21"/>
+      <c r="S56" s="10"/>
+      <c r="T56" s="10"/>
+      <c r="U56" s="38"/>
+      <c r="V56" s="10"/>
+      <c r="W56" s="10"/>
+      <c r="X56" s="38"/>
     </row>
     <row r="57" spans="7:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
-      <c r="K57" s="75"/>
-      <c r="L57" s="76"/>
-      <c r="M57" s="52"/>
-      <c r="N57" s="53"/>
-      <c r="O57" s="36"/>
-      <c r="P57" s="109" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q57" s="109" t="s">
-        <v>83</v>
-      </c>
-      <c r="R57" s="109" t="s">
-        <v>99</v>
-      </c>
-      <c r="S57" s="15"/>
-      <c r="T57" s="15"/>
-      <c r="U57" s="15"/>
-      <c r="V57" s="13"/>
-      <c r="W57" s="13"/>
-      <c r="X57" s="26"/>
+      <c r="K57" s="69"/>
+      <c r="L57" s="70"/>
+      <c r="M57" s="13"/>
+      <c r="N57" s="14"/>
+      <c r="O57" s="18"/>
+      <c r="P57" s="21"/>
+      <c r="Q57" s="21"/>
+      <c r="R57" s="21"/>
+      <c r="S57" s="29"/>
+      <c r="T57" s="37"/>
+      <c r="U57" s="8"/>
+      <c r="V57" s="29"/>
+      <c r="W57" s="29"/>
+      <c r="X57" s="37"/>
     </row>
     <row r="58" spans="7:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
-      <c r="K58" s="75"/>
-      <c r="L58" s="76"/>
-      <c r="M58" s="54"/>
-      <c r="N58" s="55"/>
-      <c r="O58" s="37"/>
-      <c r="P58" s="110"/>
-      <c r="Q58" s="110"/>
-      <c r="R58" s="110"/>
-      <c r="S58" s="14"/>
-      <c r="T58" s="14"/>
-      <c r="U58" s="14"/>
-      <c r="V58" s="14"/>
-      <c r="W58" s="14"/>
-      <c r="X58" s="27"/>
+      <c r="K58" s="69"/>
+      <c r="L58" s="70"/>
+      <c r="M58" s="15"/>
+      <c r="N58" s="16"/>
+      <c r="O58" s="19"/>
+      <c r="P58" s="22"/>
+      <c r="Q58" s="22"/>
+      <c r="R58" s="22"/>
+      <c r="S58" s="10"/>
+      <c r="T58" s="38"/>
+      <c r="U58" s="10"/>
+      <c r="V58" s="10"/>
+      <c r="W58" s="10"/>
+      <c r="X58" s="38"/>
     </row>
     <row r="59" spans="7:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
-      <c r="K59" s="75"/>
-      <c r="L59" s="76"/>
-      <c r="M59" s="50" t="s">
-        <v>81</v>
-      </c>
-      <c r="N59" s="51"/>
-      <c r="O59" s="35">
-        <v>2</v>
-      </c>
-      <c r="P59" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q59" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="R59" s="26"/>
-      <c r="S59" s="15"/>
-      <c r="T59" s="13"/>
-      <c r="U59" s="26"/>
-      <c r="V59" s="15"/>
-      <c r="W59" s="13"/>
-      <c r="X59" s="13"/>
+      <c r="K59" s="69"/>
+      <c r="L59" s="70"/>
+      <c r="M59" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="N59" s="12"/>
+      <c r="O59" s="17">
+        <v>1</v>
+      </c>
+      <c r="P59" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q59" s="29"/>
+      <c r="R59" s="37"/>
+      <c r="S59" s="8"/>
+      <c r="T59" s="29"/>
+      <c r="U59" s="37"/>
+      <c r="V59" s="8"/>
+      <c r="W59" s="29"/>
+      <c r="X59" s="37"/>
     </row>
     <row r="60" spans="7:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
-      <c r="K60" s="75"/>
-      <c r="L60" s="76"/>
-      <c r="M60" s="52"/>
-      <c r="N60" s="53"/>
-      <c r="O60" s="36"/>
-      <c r="P60" s="23"/>
-      <c r="Q60" s="23"/>
-      <c r="R60" s="27"/>
-      <c r="S60" s="14"/>
-      <c r="T60" s="14"/>
-      <c r="U60" s="27"/>
-      <c r="V60" s="14"/>
-      <c r="W60" s="14"/>
-      <c r="X60" s="14"/>
+      <c r="K60" s="69"/>
+      <c r="L60" s="70"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="14"/>
+      <c r="O60" s="18"/>
+      <c r="P60" s="22"/>
+      <c r="Q60" s="10"/>
+      <c r="R60" s="38"/>
+      <c r="S60" s="10"/>
+      <c r="T60" s="10"/>
+      <c r="U60" s="38"/>
+      <c r="V60" s="10"/>
+      <c r="W60" s="10"/>
+      <c r="X60" s="38"/>
     </row>
     <row r="61" spans="7:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
-      <c r="K61" s="75"/>
-      <c r="L61" s="76"/>
-      <c r="M61" s="52"/>
-      <c r="N61" s="53"/>
-      <c r="O61" s="36"/>
-      <c r="P61" s="23"/>
-      <c r="Q61" s="23"/>
-      <c r="R61" s="15"/>
-      <c r="S61" s="13"/>
-      <c r="T61" s="26"/>
-      <c r="U61" s="15"/>
-      <c r="V61" s="13"/>
-      <c r="W61" s="13"/>
-      <c r="X61" s="13"/>
+      <c r="K61" s="69"/>
+      <c r="L61" s="70"/>
+      <c r="M61" s="13"/>
+      <c r="N61" s="14"/>
+      <c r="O61" s="18"/>
+      <c r="P61" s="111" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q61" s="111" t="s">
+        <v>81</v>
+      </c>
+      <c r="R61" s="111" t="s">
+        <v>97</v>
+      </c>
+      <c r="S61" s="8"/>
+      <c r="T61" s="8"/>
+      <c r="U61" s="8"/>
+      <c r="V61" s="29"/>
+      <c r="W61" s="29"/>
+      <c r="X61" s="37"/>
     </row>
     <row r="62" spans="7:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
-      <c r="K62" s="75"/>
-      <c r="L62" s="76"/>
-      <c r="M62" s="54"/>
-      <c r="N62" s="55"/>
-      <c r="O62" s="37"/>
-      <c r="P62" s="24"/>
-      <c r="Q62" s="24"/>
-      <c r="R62" s="14"/>
-      <c r="S62" s="14"/>
-      <c r="T62" s="27"/>
-      <c r="U62" s="14"/>
-      <c r="V62" s="14"/>
-      <c r="W62" s="14"/>
-      <c r="X62" s="14"/>
-    </row>
-    <row r="63" spans="7:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="K63" s="75"/>
-      <c r="L63" s="76"/>
-      <c r="M63" s="79"/>
-      <c r="N63" s="80"/>
-      <c r="O63" s="2"/>
-      <c r="P63" s="1"/>
-      <c r="Q63" s="1"/>
-      <c r="R63" s="1"/>
-      <c r="S63" s="1"/>
-      <c r="T63" s="1"/>
-      <c r="U63" s="1"/>
-      <c r="V63" s="1"/>
-      <c r="W63" s="1"/>
-    </row>
-    <row r="64" spans="7:24" ht="15" x14ac:dyDescent="0.25">
-      <c r="K64" s="75"/>
-      <c r="L64" s="76"/>
-      <c r="M64" s="87"/>
-      <c r="N64" s="88"/>
-      <c r="O64" s="4"/>
-      <c r="P64" s="5"/>
-      <c r="Q64" s="5"/>
-      <c r="R64" s="5"/>
-      <c r="S64" s="5"/>
-      <c r="T64" s="5"/>
-      <c r="U64" s="5"/>
-      <c r="V64" s="5"/>
-      <c r="W64" s="5"/>
-    </row>
-    <row r="65" spans="8:23" ht="15" x14ac:dyDescent="0.25">
-      <c r="K65" s="77"/>
-      <c r="L65" s="78"/>
-      <c r="M65" s="79"/>
-      <c r="N65" s="80"/>
-      <c r="O65" s="3"/>
-      <c r="P65" s="1"/>
-      <c r="Q65" s="1"/>
-      <c r="R65" s="1"/>
-      <c r="S65" s="1"/>
-      <c r="T65" s="1"/>
-      <c r="U65" s="1"/>
-      <c r="V65" s="1"/>
-      <c r="W65" s="1"/>
-    </row>
-    <row r="75" spans="8:23" x14ac:dyDescent="0.15">
-      <c r="H75" s="112"/>
-      <c r="I75" s="112"/>
-    </row>
-    <row r="76" spans="8:23" x14ac:dyDescent="0.15">
-      <c r="H76" s="112"/>
-      <c r="I76" s="112"/>
-    </row>
-    <row r="77" spans="8:23" x14ac:dyDescent="0.15">
-      <c r="H77" s="112"/>
-      <c r="I77" s="112"/>
-    </row>
-    <row r="78" spans="8:23" x14ac:dyDescent="0.15">
-      <c r="H78" s="112"/>
-      <c r="I78" s="112"/>
-    </row>
-    <row r="79" spans="8:23" x14ac:dyDescent="0.15">
-      <c r="H79" s="112"/>
-      <c r="I79" s="112"/>
-    </row>
-    <row r="80" spans="8:23" x14ac:dyDescent="0.15">
-      <c r="H80" s="112"/>
-      <c r="I80" s="112"/>
+      <c r="K62" s="69"/>
+      <c r="L62" s="70"/>
+      <c r="M62" s="15"/>
+      <c r="N62" s="16"/>
+      <c r="O62" s="19"/>
+      <c r="P62" s="112"/>
+      <c r="Q62" s="112"/>
+      <c r="R62" s="112"/>
+      <c r="S62" s="10"/>
+      <c r="T62" s="10"/>
+      <c r="U62" s="10"/>
+      <c r="V62" s="10"/>
+      <c r="W62" s="10"/>
+      <c r="X62" s="38"/>
+    </row>
+    <row r="63" spans="7:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="K63" s="69"/>
+      <c r="L63" s="70"/>
+      <c r="M63" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="N63" s="12"/>
+      <c r="O63" s="17">
+        <v>2</v>
+      </c>
+      <c r="P63" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q63" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="R63" s="37"/>
+      <c r="S63" s="8"/>
+      <c r="T63" s="29"/>
+      <c r="U63" s="37"/>
+      <c r="V63" s="8"/>
+      <c r="W63" s="29"/>
+      <c r="X63" s="29"/>
+    </row>
+    <row r="64" spans="7:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="K64" s="69"/>
+      <c r="L64" s="70"/>
+      <c r="M64" s="13"/>
+      <c r="N64" s="14"/>
+      <c r="O64" s="18"/>
+      <c r="P64" s="21"/>
+      <c r="Q64" s="21"/>
+      <c r="R64" s="38"/>
+      <c r="S64" s="10"/>
+      <c r="T64" s="10"/>
+      <c r="U64" s="38"/>
+      <c r="V64" s="10"/>
+      <c r="W64" s="10"/>
+      <c r="X64" s="10"/>
+    </row>
+    <row r="65" spans="7:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="K65" s="69"/>
+      <c r="L65" s="70"/>
+      <c r="M65" s="13"/>
+      <c r="N65" s="14"/>
+      <c r="O65" s="18"/>
+      <c r="P65" s="21"/>
+      <c r="Q65" s="21"/>
+      <c r="R65" s="8"/>
+      <c r="S65" s="29"/>
+      <c r="T65" s="37"/>
+      <c r="U65" s="8"/>
+      <c r="V65" s="29"/>
+      <c r="W65" s="29"/>
+      <c r="X65" s="29"/>
+    </row>
+    <row r="66" spans="7:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="K66" s="69"/>
+      <c r="L66" s="70"/>
+      <c r="M66" s="15"/>
+      <c r="N66" s="16"/>
+      <c r="O66" s="19"/>
+      <c r="P66" s="22"/>
+      <c r="Q66" s="22"/>
+      <c r="R66" s="10"/>
+      <c r="S66" s="10"/>
+      <c r="T66" s="38"/>
+      <c r="U66" s="10"/>
+      <c r="V66" s="10"/>
+      <c r="W66" s="10"/>
+      <c r="X66" s="10"/>
+    </row>
+    <row r="67" spans="7:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="K67" s="69"/>
+      <c r="L67" s="70"/>
+      <c r="M67" s="73"/>
+      <c r="N67" s="74"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
+      <c r="W67" s="1"/>
+    </row>
+    <row r="68" spans="7:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="K68" s="69"/>
+      <c r="L68" s="70"/>
+      <c r="M68" s="81"/>
+      <c r="N68" s="82"/>
+      <c r="O68" s="4"/>
+      <c r="P68" s="5"/>
+      <c r="Q68" s="5"/>
+      <c r="R68" s="5"/>
+      <c r="S68" s="5"/>
+      <c r="T68" s="5"/>
+      <c r="U68" s="5"/>
+      <c r="V68" s="5"/>
+      <c r="W68" s="5"/>
+    </row>
+    <row r="69" spans="7:24" ht="15" x14ac:dyDescent="0.25">
+      <c r="K69" s="71"/>
+      <c r="L69" s="72"/>
+      <c r="M69" s="73"/>
+      <c r="N69" s="74"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
+      <c r="W69" s="1"/>
+    </row>
+    <row r="79" spans="7:24" x14ac:dyDescent="0.15">
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+    </row>
+    <row r="80" spans="7:24" x14ac:dyDescent="0.15">
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
     </row>
     <row r="81" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H81" s="112"/>
-      <c r="I81" s="112"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
     </row>
     <row r="82" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H82" s="112"/>
-      <c r="I82" s="112"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
     </row>
     <row r="83" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H83" s="112"/>
-      <c r="I83" s="112"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
     </row>
     <row r="84" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H84" s="112"/>
-      <c r="I84" s="112"/>
+      <c r="H84" s="7"/>
+      <c r="I84" s="7"/>
     </row>
     <row r="85" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H85" s="112"/>
-      <c r="I85" s="112"/>
+      <c r="H85" s="7"/>
+      <c r="I85" s="7"/>
     </row>
     <row r="86" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H86" s="112"/>
-      <c r="I86" s="112"/>
+      <c r="H86" s="7"/>
+      <c r="I86" s="7"/>
     </row>
     <row r="87" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H87" s="112"/>
-      <c r="I87" s="112"/>
+      <c r="H87" s="7"/>
+      <c r="I87" s="7"/>
     </row>
     <row r="88" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H88" s="112"/>
-      <c r="I88" s="112"/>
+      <c r="H88" s="7"/>
+      <c r="I88" s="7"/>
     </row>
     <row r="89" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H89" s="112"/>
-      <c r="I89" s="112"/>
+      <c r="H89" s="7"/>
+      <c r="I89" s="7"/>
     </row>
     <row r="90" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H90" s="112"/>
-      <c r="I90" s="112"/>
+      <c r="H90" s="7"/>
+      <c r="I90" s="7"/>
     </row>
     <row r="91" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H91" s="112"/>
-      <c r="I91" s="112"/>
+      <c r="H91" s="7"/>
+      <c r="I91" s="7"/>
     </row>
     <row r="92" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H92" s="112"/>
-      <c r="I92" s="112"/>
+      <c r="H92" s="7"/>
+      <c r="I92" s="7"/>
     </row>
     <row r="93" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H93" s="112"/>
-      <c r="I93" s="112"/>
+      <c r="H93" s="7"/>
+      <c r="I93" s="7"/>
     </row>
     <row r="94" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H94" s="112"/>
-      <c r="I94" s="112"/>
+      <c r="H94" s="7"/>
+      <c r="I94" s="7"/>
     </row>
     <row r="95" spans="8:9" x14ac:dyDescent="0.15">
-      <c r="H95" s="112"/>
-      <c r="I95" s="112"/>
+      <c r="H95" s="7"/>
+      <c r="I95" s="7"/>
+    </row>
+    <row r="96" spans="8:9" x14ac:dyDescent="0.15">
+      <c r="H96" s="7"/>
+      <c r="I96" s="7"/>
+    </row>
+    <row r="97" spans="8:9" x14ac:dyDescent="0.15">
+      <c r="H97" s="7"/>
+      <c r="I97" s="7"/>
+    </row>
+    <row r="98" spans="8:9" x14ac:dyDescent="0.15">
+      <c r="H98" s="7"/>
+      <c r="I98" s="7"/>
+    </row>
+    <row r="99" spans="8:9" x14ac:dyDescent="0.15">
+      <c r="H99" s="7"/>
+      <c r="I99" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="308">
-    <mergeCell ref="S57:S58"/>
+  <mergeCells count="319">
+    <mergeCell ref="S61:S62"/>
     <mergeCell ref="O43:O46"/>
     <mergeCell ref="P43:P44"/>
     <mergeCell ref="P45:P46"/>
@@ -3682,10 +3886,11 @@
     <mergeCell ref="R43:R44"/>
     <mergeCell ref="S43:S44"/>
     <mergeCell ref="T43:T44"/>
-    <mergeCell ref="R49:R50"/>
-    <mergeCell ref="S49:S50"/>
-    <mergeCell ref="P47:P50"/>
+    <mergeCell ref="R53:R54"/>
     <mergeCell ref="S53:S54"/>
+    <mergeCell ref="P51:P54"/>
+    <mergeCell ref="S57:S58"/>
+    <mergeCell ref="T47:T50"/>
     <mergeCell ref="U43:U44"/>
     <mergeCell ref="V43:V44"/>
     <mergeCell ref="W43:W44"/>
@@ -3707,32 +3912,30 @@
     <mergeCell ref="T41:T42"/>
     <mergeCell ref="U41:U42"/>
     <mergeCell ref="V41:V42"/>
+    <mergeCell ref="W65:W66"/>
+    <mergeCell ref="R55:R58"/>
+    <mergeCell ref="W41:W42"/>
+    <mergeCell ref="Q61:Q62"/>
+    <mergeCell ref="R61:R62"/>
+    <mergeCell ref="T61:T62"/>
+    <mergeCell ref="U61:U62"/>
+    <mergeCell ref="V61:V62"/>
     <mergeCell ref="W61:W62"/>
-    <mergeCell ref="R51:R54"/>
-    <mergeCell ref="W41:W42"/>
-    <mergeCell ref="Q57:Q58"/>
-    <mergeCell ref="R57:R58"/>
-    <mergeCell ref="T57:T58"/>
-    <mergeCell ref="U57:U58"/>
-    <mergeCell ref="V57:V58"/>
-    <mergeCell ref="W57:W58"/>
+    <mergeCell ref="R63:R64"/>
+    <mergeCell ref="S63:S64"/>
+    <mergeCell ref="T63:T64"/>
+    <mergeCell ref="U63:U64"/>
+    <mergeCell ref="V63:V64"/>
+    <mergeCell ref="W63:W64"/>
     <mergeCell ref="R59:R60"/>
     <mergeCell ref="S59:S60"/>
     <mergeCell ref="T59:T60"/>
     <mergeCell ref="U59:U60"/>
     <mergeCell ref="V59:V60"/>
     <mergeCell ref="W59:W60"/>
-    <mergeCell ref="R55:R56"/>
-    <mergeCell ref="S55:S56"/>
-    <mergeCell ref="T55:T56"/>
-    <mergeCell ref="U55:U56"/>
-    <mergeCell ref="V55:V56"/>
-    <mergeCell ref="W55:W56"/>
-    <mergeCell ref="R61:R62"/>
-    <mergeCell ref="S61:S62"/>
-    <mergeCell ref="T61:T62"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="R65:R66"/>
+    <mergeCell ref="S65:S66"/>
+    <mergeCell ref="T65:T66"/>
     <mergeCell ref="W29:W30"/>
     <mergeCell ref="Q27:Q28"/>
     <mergeCell ref="R27:R28"/>
@@ -3762,15 +3965,15 @@
     <mergeCell ref="V19:V20"/>
     <mergeCell ref="U23:U24"/>
     <mergeCell ref="V23:V24"/>
-    <mergeCell ref="V61:V62"/>
-    <mergeCell ref="M55:N58"/>
-    <mergeCell ref="P57:P58"/>
-    <mergeCell ref="Q55:Q56"/>
+    <mergeCell ref="V65:V66"/>
     <mergeCell ref="M59:N62"/>
-    <mergeCell ref="P59:P62"/>
-    <mergeCell ref="O55:O58"/>
+    <mergeCell ref="P61:P62"/>
+    <mergeCell ref="Q59:Q60"/>
+    <mergeCell ref="M63:N66"/>
+    <mergeCell ref="P63:P66"/>
     <mergeCell ref="O59:O62"/>
-    <mergeCell ref="U61:U62"/>
+    <mergeCell ref="O63:O66"/>
+    <mergeCell ref="U65:U66"/>
     <mergeCell ref="Q39:Q42"/>
     <mergeCell ref="P39:P40"/>
     <mergeCell ref="P41:P42"/>
@@ -3788,15 +3991,6 @@
     <mergeCell ref="O21:O22"/>
     <mergeCell ref="M21:N22"/>
     <mergeCell ref="Q15:Q16"/>
-    <mergeCell ref="R15:R16"/>
-    <mergeCell ref="S15:S16"/>
-    <mergeCell ref="P19:P20"/>
-    <mergeCell ref="Q19:Q20"/>
-    <mergeCell ref="R19:R20"/>
-    <mergeCell ref="S19:S20"/>
-    <mergeCell ref="P21:P22"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G18:H18"/>
     <mergeCell ref="G7:H7"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="G8:H8"/>
@@ -3807,7 +4001,18 @@
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="K4:L5"/>
-    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="R15:R16"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="P19:P20"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="R19:R20"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="P21:P22"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G18:H18"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:J2"/>
@@ -3817,15 +4022,12 @@
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="G3:H3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="K3:L3"/>
-    <mergeCell ref="C4:D6"/>
+    <mergeCell ref="M1:N1"/>
     <mergeCell ref="C7:D9"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
@@ -3843,19 +4045,26 @@
     <mergeCell ref="O15:O16"/>
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I4:J5"/>
+    <mergeCell ref="O4:P5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="C4:D6"/>
     <mergeCell ref="T15:T16"/>
     <mergeCell ref="U15:U16"/>
     <mergeCell ref="V15:V16"/>
     <mergeCell ref="S13:S14"/>
     <mergeCell ref="T13:T14"/>
-    <mergeCell ref="K13:L65"/>
-    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="K13:L69"/>
+    <mergeCell ref="M69:N69"/>
     <mergeCell ref="M13:N14"/>
     <mergeCell ref="O13:O14"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="M68:N68"/>
+    <mergeCell ref="M67:N67"/>
     <mergeCell ref="P13:P14"/>
-    <mergeCell ref="P55:P56"/>
+    <mergeCell ref="P59:P60"/>
     <mergeCell ref="Q23:Q24"/>
     <mergeCell ref="R23:R24"/>
     <mergeCell ref="S23:S24"/>
@@ -3891,30 +4100,26 @@
     <mergeCell ref="W13:W14"/>
     <mergeCell ref="Q13:Q14"/>
     <mergeCell ref="R13:R14"/>
-    <mergeCell ref="O2:P2"/>
-    <mergeCell ref="I4:J5"/>
-    <mergeCell ref="O4:P5"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="M47:N50"/>
     <mergeCell ref="M51:N54"/>
-    <mergeCell ref="V47:V48"/>
-    <mergeCell ref="W47:W48"/>
-    <mergeCell ref="U51:U52"/>
+    <mergeCell ref="M55:N58"/>
     <mergeCell ref="V51:V52"/>
     <mergeCell ref="W51:W52"/>
-    <mergeCell ref="T49:T50"/>
-    <mergeCell ref="U49:U50"/>
-    <mergeCell ref="V49:V50"/>
-    <mergeCell ref="W49:W50"/>
-    <mergeCell ref="Q47:Q48"/>
-    <mergeCell ref="R47:R48"/>
-    <mergeCell ref="S47:S48"/>
-    <mergeCell ref="T47:T48"/>
-    <mergeCell ref="U47:U48"/>
+    <mergeCell ref="U55:U56"/>
+    <mergeCell ref="V55:V56"/>
+    <mergeCell ref="W55:W56"/>
+    <mergeCell ref="T53:T54"/>
+    <mergeCell ref="U53:U54"/>
+    <mergeCell ref="V53:V54"/>
+    <mergeCell ref="W53:W54"/>
+    <mergeCell ref="Q51:Q52"/>
+    <mergeCell ref="R51:R52"/>
     <mergeCell ref="S51:S52"/>
     <mergeCell ref="T51:T52"/>
-    <mergeCell ref="P51:P54"/>
-    <mergeCell ref="Q49:Q50"/>
+    <mergeCell ref="U51:U52"/>
+    <mergeCell ref="S55:S56"/>
+    <mergeCell ref="T55:T56"/>
+    <mergeCell ref="P55:P58"/>
+    <mergeCell ref="Q53:Q54"/>
     <mergeCell ref="W15:W16"/>
     <mergeCell ref="P17:P18"/>
     <mergeCell ref="Q17:Q18"/>
@@ -3922,20 +4127,20 @@
     <mergeCell ref="S17:S18"/>
     <mergeCell ref="T17:T18"/>
     <mergeCell ref="U17:U18"/>
-    <mergeCell ref="O47:O50"/>
     <mergeCell ref="O51:O54"/>
+    <mergeCell ref="O55:O58"/>
     <mergeCell ref="O31:O34"/>
     <mergeCell ref="R35:R36"/>
     <mergeCell ref="O39:O42"/>
     <mergeCell ref="O35:O38"/>
-    <mergeCell ref="V53:V54"/>
-    <mergeCell ref="W53:W54"/>
+    <mergeCell ref="V57:V58"/>
+    <mergeCell ref="W57:W58"/>
     <mergeCell ref="Q35:Q36"/>
     <mergeCell ref="S35:S36"/>
     <mergeCell ref="T35:T36"/>
     <mergeCell ref="U35:U36"/>
-    <mergeCell ref="T53:T54"/>
-    <mergeCell ref="U53:U54"/>
+    <mergeCell ref="T57:T58"/>
+    <mergeCell ref="U57:U58"/>
     <mergeCell ref="V17:V18"/>
     <mergeCell ref="W17:W18"/>
     <mergeCell ref="W19:W20"/>
@@ -3958,29 +4163,39 @@
     <mergeCell ref="S31:S32"/>
     <mergeCell ref="T31:T32"/>
     <mergeCell ref="M31:N46"/>
-    <mergeCell ref="X61:X62"/>
+    <mergeCell ref="X65:X66"/>
     <mergeCell ref="V31:V32"/>
     <mergeCell ref="W31:W32"/>
     <mergeCell ref="V33:V34"/>
     <mergeCell ref="W33:W34"/>
     <mergeCell ref="Q37:X38"/>
-    <mergeCell ref="Q59:Q62"/>
-    <mergeCell ref="Q51:Q54"/>
+    <mergeCell ref="Q63:Q66"/>
+    <mergeCell ref="Q55:Q58"/>
     <mergeCell ref="X39:X40"/>
     <mergeCell ref="X41:X42"/>
-    <mergeCell ref="X47:X48"/>
-    <mergeCell ref="X49:X50"/>
     <mergeCell ref="X51:X52"/>
     <mergeCell ref="X53:X54"/>
     <mergeCell ref="X55:X56"/>
     <mergeCell ref="X57:X58"/>
     <mergeCell ref="X59:X60"/>
+    <mergeCell ref="X61:X62"/>
+    <mergeCell ref="X63:X64"/>
     <mergeCell ref="V35:V36"/>
     <mergeCell ref="W35:W36"/>
     <mergeCell ref="X33:X34"/>
     <mergeCell ref="X35:X36"/>
     <mergeCell ref="U31:U32"/>
     <mergeCell ref="U33:U34"/>
+    <mergeCell ref="U47:U50"/>
+    <mergeCell ref="V47:V50"/>
+    <mergeCell ref="W47:W50"/>
+    <mergeCell ref="X47:X50"/>
+    <mergeCell ref="M47:N50"/>
+    <mergeCell ref="O47:O50"/>
+    <mergeCell ref="P47:P50"/>
+    <mergeCell ref="Q47:Q50"/>
+    <mergeCell ref="R47:R50"/>
+    <mergeCell ref="S47:S50"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
